--- a/SiteAssets/AdminPortal/ManageEmployee/assets/excel/EmployeeSyncTemplate.xlsx
+++ b/SiteAssets/AdminPortal/ManageEmployee/assets/excel/EmployeeSyncTemplate.xlsx
@@ -853,17 +853,10 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <ImageMetadataListItemId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334">
+    <TaxCatchAll xmlns="e45dbced-aa1a-4b99-b9a7-17c1647603e8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57aa06b8-40a5-4000-b0c0-0a316fdf73b5">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <ImageMetadataListFieldId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
-    <_dlc_DocId xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">ADMIN-1645029823-1698</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">
-      <Url>https://adaptindia.sharepoint.com/sites/Titan_2_2_1_DEV/_layouts/15/DocIdRedir.aspx?ID=ADMIN-1645029823-1698</Url>
-      <Description>ADMIN-1645029823-1698</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
@@ -1132,53 +1125,226 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA9C04D3BC02534394A1512A2B3659FE" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c628c788014303cf47c7b82900940e6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57aa06b8-40a5-4000-b0c0-0a316fdf73b5" xmlns:ns3="e45dbced-aa1a-4b99-b9a7-17c1647603e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9d9537e0961fbe981c5326a6adb0efe" ns2:_="" ns3:_="">
+    <xsd:import namespace="57aa06b8-40a5-4000-b0c0-0a316fdf73b5"/>
+    <xsd:import namespace="e45dbced-aa1a-4b99-b9a7-17c1647603e8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="57aa06b8-40a5-4000-b0c0-0a316fdf73b5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="4" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="5" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="6" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="7" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="8" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="9" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:description="" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="72f1e48a-f028-4684-b70c-b64d4d82a1fc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e45dbced-aa1a-4b99-b9a7-17c1647603e8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:SearchPeopleOnly="false" ma:SharePointGroup="0" ma:internalName="SharedWithUsers" ma:readOnly="true" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{de4e050f-aa16-41e3-b1eb-200c8aafaec1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e45dbced-aa1a-4b99-b9a7-17c1647603e8">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="17" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,5 +1360,5 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38CB5071-C473-42BA-9525-0E72C343E91C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3CCEAD9-4D18-4C76-B092-4617749B4196}"/>
 </file>
--- a/SiteAssets/AdminPortal/ManageEmployee/assets/excel/EmployeeSyncTemplate.xlsx
+++ b/SiteAssets/AdminPortal/ManageEmployee/assets/excel/EmployeeSyncTemplate.xlsx
@@ -853,10 +853,17 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="e45dbced-aa1a-4b99-b9a7-17c1647603e8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57aa06b8-40a5-4000-b0c0-0a316fdf73b5">
+    <ImageMetadataListItemId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <ImageMetadataListFieldId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
+    <_dlc_DocId xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">ADMIN-1645029823-1698</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">
+      <Url>https://adaptindia.sharepoint.com/sites/Titan_2_2_1_DEV/_layouts/15/DocIdRedir.aspx?ID=ADMIN-1645029823-1698</Url>
+      <Description>ADMIN-1645029823-1698</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
@@ -1125,226 +1132,53 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA9C04D3BC02534394A1512A2B3659FE" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c628c788014303cf47c7b82900940e6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57aa06b8-40a5-4000-b0c0-0a316fdf73b5" xmlns:ns3="e45dbced-aa1a-4b99-b9a7-17c1647603e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9d9537e0961fbe981c5326a6adb0efe" ns2:_="" ns3:_="">
-    <xsd:import namespace="57aa06b8-40a5-4000-b0c0-0a316fdf73b5"/>
-    <xsd:import namespace="e45dbced-aa1a-4b99-b9a7-17c1647603e8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="57aa06b8-40a5-4000-b0c0-0a316fdf73b5" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="4" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="5" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="6" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="7" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="8" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="9" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:description="" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="72f1e48a-f028-4684-b70c-b64d4d82a1fc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e45dbced-aa1a-4b99-b9a7-17c1647603e8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:SearchPeopleOnly="false" ma:SharePointGroup="0" ma:internalName="SharedWithUsers" ma:readOnly="true" ma:showField="ImnName">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{de4e050f-aa16-41e3-b1eb-200c8aafaec1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e45dbced-aa1a-4b99-b9a7-17c1647603e8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="17" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1360,5 +1194,5 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3CCEAD9-4D18-4C76-B092-4617749B4196}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38CB5071-C473-42BA-9525-0E72C343E91C}"/>
 </file>
--- a/SiteAssets/AdminPortal/ManageEmployee/assets/excel/EmployeeSyncTemplate.xlsx
+++ b/SiteAssets/AdminPortal/ManageEmployee/assets/excel/EmployeeSyncTemplate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dipankar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TitanFiles\files - Copy (2)\TitanRepo\SiteAssets\AdminPortal\ManageEmployee\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_17C55C3F4E6FD72D7F7A3E8ACA99FC8642A6A04B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D657D1-AD6E-4772-BD3D-739F54E4B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,36 +594,36 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
     <col min="9" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.28515625" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -765,7 +765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -851,33 +851,56 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ImageMetadataListItemId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <ImageMetadataListFieldId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
-    <_dlc_DocId xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">ADMIN-1645029823-1698</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">
-      <Url>https://adaptindia.sharepoint.com/sites/Titan_2_2_1_DEV/_layouts/15/DocIdRedir.aspx?ID=ADMIN-1645029823-1698</Url>
-      <Description>ADMIN-1645029823-1698</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A2ED4FA4550114390F4E4DA6A41FD5F" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="10700437bbd6ac7758156c3ff0ac02b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11650e4e-d99c-4cd5-8ffb-b15150002334" xmlns:ns3="e9d3e7c7-f0c2-437b-a72b-2dd753089032" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12d49b30532650eab3d1b40ef4bc3b9b" ns2:_="" ns3:_="">
     <xsd:import namespace="11650e4e-d99c-4cd5-8ffb-b15150002334"/>
@@ -1131,68 +1154,75 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ImageMetadataListItemId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <ImageMetadataListFieldId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
+    <_dlc_DocId xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">ADMIN-1645029823-1698</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">
+      <Url>https://adaptindia.sharepoint.com/sites/Titan_2_2_1_DEV/_layouts/15/DocIdRedir.aspx?ID=ADMIN-1645029823-1698</Url>
+      <Description>ADMIN-1645029823-1698</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF890BB-A391-49CA-971F-2E7B3D4D3758}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38CB5071-C473-42BA-9525-0E72C343E91C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7026AA-318B-4189-9CB4-E8C9002DA245}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8099B9A1-59C2-41F8-AD36-2E166450B0A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="11650e4e-d99c-4cd5-8ffb-b15150002334"/>
+    <ds:schemaRef ds:uri="e9d3e7c7-f0c2-437b-a72b-2dd753089032"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8099B9A1-59C2-41F8-AD36-2E166450B0A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7026AA-318B-4189-9CB4-E8C9002DA245}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38CB5071-C473-42BA-9525-0E72C343E91C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF890BB-A391-49CA-971F-2E7B3D4D3758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="11650e4e-d99c-4cd5-8ffb-b15150002334"/>
+    <ds:schemaRef ds:uri="e9d3e7c7-f0c2-437b-a72b-2dd753089032"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SiteAssets/AdminPortal/ManageEmployee/assets/excel/EmployeeSyncTemplate.xlsx
+++ b/SiteAssets/AdminPortal/ManageEmployee/assets/excel/EmployeeSyncTemplate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23621"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TitanFiles\files - Copy (2)\TitanRepo\SiteAssets\AdminPortal\ManageEmployee\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dipankar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D657D1-AD6E-4772-BD3D-739F54E4B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_17C55C3F4E6FD72D7F7A3E8ACA99FC8642A6A04B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,36 +594,36 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
-    <col min="21" max="21" width="17.5546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -765,7 +765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -851,58 +851,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe323a5-636c-48ce-820d-55af6f5a57e5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="691dcd9a-249d-464e-8e4e-e62cb684c63e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A2ED4FA4550114390F4E4DA6A41FD5F" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="10700437bbd6ac7758156c3ff0ac02b2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11650e4e-d99c-4cd5-8ffb-b15150002334" xmlns:ns3="e9d3e7c7-f0c2-437b-a72b-2dd753089032" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12d49b30532650eab3d1b40ef4bc3b9b" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A2ED4FA4550114390F4E4DA6A41FD5F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="930000e5933d12201b4c46cfc566de4e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11650e4e-d99c-4cd5-8ffb-b15150002334" xmlns:ns3="e9d3e7c7-f0c2-437b-a72b-2dd753089032" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="078f977119e25531adda39e4bde4ad65" ns2:_="" ns3:_="">
     <xsd:import namespace="11650e4e-d99c-4cd5-8ffb-b15150002334"/>
     <xsd:import namespace="e9d3e7c7-f0c2-437b-a72b-2dd753089032"/>
     <xsd:element name="properties">
@@ -914,6 +884,7 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
@@ -925,8 +896,6 @@
                 <xsd:element ref="ns3:_dlc_DocId" minOccurs="0"/>
                 <xsd:element ref="ns3:_dlc_DocIdUrl" minOccurs="0"/>
                 <xsd:element ref="ns3:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -952,50 +921,48 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="ImageMetadataListItemId" ma:index="17" nillable="true" ma:displayName="ImageMetadataListItemId" ma:hidden="true" ma:indexed="true" ma:internalName="ImageMetadataListItemId">
+    <xsd:element name="ImageMetadataListItemId" ma:index="18" nillable="true" ma:displayName="ImageMetadataListItemId" ma:hidden="true" ma:indexed="true" ma:internalName="ImageMetadataListItemId">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="ImageMetadataListFieldId" ma:index="18" nillable="true" ma:displayName="ImageMetadataListFieldId" ma:hidden="true" ma:indexed="true" ma:internalName="ImageMetadataListFieldId">
+    <xsd:element name="ImageMetadataListFieldId" ma:index="19" nillable="true" ma:displayName="ImageMetadataListFieldId" ma:hidden="true" ma:indexed="true" ma:internalName="ImageMetadataListFieldId">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="72f1e48a-f028-4684-b70c-b64d4d82a1fc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e9d3e7c7-f0c2-437b-a72b-2dd753089032" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:SearchPeopleOnly="false" ma:SharePointGroup="0" ma:internalName="SharedWithUsers" ma:readOnly="true" ma:showField="ImnName">
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:SearchPeopleOnly="false" ma:SharePointGroup="0" ma:internalName="SharedWithUsers" ma:readOnly="true" ma:showField="ImnName">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1014,19 +981,19 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_dlc_DocId" ma:index="19" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:indexed="true" ma:internalName="_dlc_DocId" ma:readOnly="true">
+    <xsd:element name="_dlc_DocId" ma:index="20" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:indexed="true" ma:internalName="_dlc_DocId" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="20" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+    <xsd:element name="_dlc_DocIdUrl" ma:index="21" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:URL">
@@ -1038,21 +1005,10 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="21" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="22" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Boolean"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{56595b7f-541d-4524-8ca8-b786ab95179d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e9d3e7c7-f0c2-437b-a72b-2dd753089032">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1154,75 +1110,235 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ImageMetadataListItemId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <ImageMetadataListFieldId xmlns="11650e4e-d99c-4cd5-8ffb-b15150002334" xsi:nil="true"/>
-    <_dlc_DocId xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">ADMIN-1645029823-1698</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="e9d3e7c7-f0c2-437b-a72b-2dd753089032">
-      <Url>https://adaptindia.sharepoint.com/sites/Titan_2_2_1_DEV/_layouts/15/DocIdRedir.aspx?ID=ADMIN-1645029823-1698</Url>
-      <Description>ADMIN-1645029823-1698</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB3CA9BBCC75BB4D960EDF9C33169BDB" ma:contentTypeVersion="30" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4218326159bd6be03a5ef57a9a95f450">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fe323a5-636c-48ce-820d-55af6f5a57e5" xmlns:ns3="691dcd9a-249d-464e-8e4e-e62cb684c63e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7894c79ce5d87c1e064eb8a0a579aca" ns2:_="" ns3:_="">
+    <xsd:import namespace="1fe323a5-636c-48ce-820d-55af6f5a57e5"/>
+    <xsd:import namespace="691dcd9a-249d-464e-8e4e-e62cb684c63e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1fe323a5-636c-48ce-820d-55af6f5a57e5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="4" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="5" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="6" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="7" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="8" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="9" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:description="" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="72f1e48a-f028-4684-b70c-b64d4d82a1fc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="691dcd9a-249d-464e-8e4e-e62cb684c63e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ce5da688-3983-464b-b62c-54c39b1eb63e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="691dcd9a-249d-464e-8e4e-e62cb684c63e">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="16" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38CB5071-C473-42BA-9525-0E72C343E91C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF890BB-A391-49CA-971F-2E7B3D4D3758}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8099B9A1-59C2-41F8-AD36-2E166450B0A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="11650e4e-d99c-4cd5-8ffb-b15150002334"/>
-    <ds:schemaRef ds:uri="e9d3e7c7-f0c2-437b-a72b-2dd753089032"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7026AA-318B-4189-9CB4-E8C9002DA245}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7026AA-318B-4189-9CB4-E8C9002DA245}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFD0600-9304-47D5-A011-567971C98C85}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF890BB-A391-49CA-971F-2E7B3D4D3758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="11650e4e-d99c-4cd5-8ffb-b15150002334"/>
-    <ds:schemaRef ds:uri="e9d3e7c7-f0c2-437b-a72b-2dd753089032"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39E5B8B-F1DD-4EB0-9ABE-DF4F8F194455}"/>
 </file>